--- a/sheets/trees.xlsx
+++ b/sheets/trees.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A623323C-F8D9-45D5-A5A4-3AF89CD1A818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>https://leetcode.com/problems/same-tree/</t>
   </si>
@@ -66,28 +67,6 @@
     <t>https://leetcode.com/problems/balanced-binary-tree/</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://leetcode.com/problems/binary-tree-inorder-traversal/</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   (USING STACK TOO)</t>
-    </r>
-  </si>
-  <si>
     <t>MEDIUM</t>
   </si>
   <si>
@@ -173,13 +152,46 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>r*</t>
+  </si>
+  <si>
+    <t>(level order travalsal)</t>
+  </si>
+  <si>
+    <t>(inorder)</t>
+  </si>
+  <si>
+    <t>level order</t>
+  </si>
+  <si>
+    <t>(inorder travalsal</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>DFS with Max value</t>
+  </si>
+  <si>
+    <t>inorder</t>
+  </si>
+  <si>
+    <t>DSU</t>
+  </si>
+  <si>
+    <t>we can check sub array tecnique or dfs for every node and check target is exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/binary-tree-inorder-traversal/ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,13 +224,6 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -256,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -268,6 +273,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -278,6 +284,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -326,7 +335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,9 +368,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,6 +420,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -569,314 +612,435 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="83.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="7" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="9" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A6" r:id="rId4"/>
-    <hyperlink ref="A7" r:id="rId5"/>
-    <hyperlink ref="A8" r:id="rId6"/>
-    <hyperlink ref="A9" r:id="rId7"/>
-    <hyperlink ref="A10" r:id="rId8"/>
-    <hyperlink ref="A11" r:id="rId9"/>
-    <hyperlink ref="A12" r:id="rId10"/>
-    <hyperlink ref="A13" r:id="rId11"/>
-    <hyperlink ref="A14" r:id="rId12"/>
-    <hyperlink ref="A15" r:id="rId13"/>
-    <hyperlink ref="A16" r:id="rId14"/>
-    <hyperlink ref="A17" r:id="rId15"/>
-    <hyperlink ref="A18" r:id="rId16"/>
-    <hyperlink ref="A21" r:id="rId17"/>
-    <hyperlink ref="A22" r:id="rId18"/>
-    <hyperlink ref="A23" r:id="rId19"/>
-    <hyperlink ref="A24" r:id="rId20"/>
-    <hyperlink ref="A25" r:id="rId21"/>
-    <hyperlink ref="A26" r:id="rId22"/>
-    <hyperlink ref="A27" r:id="rId23"/>
-    <hyperlink ref="A28" r:id="rId24"/>
-    <hyperlink ref="A29" r:id="rId25"/>
-    <hyperlink ref="A30" r:id="rId26"/>
-    <hyperlink ref="A31" r:id="rId27"/>
-    <hyperlink ref="A32" r:id="rId28"/>
-    <hyperlink ref="A33" r:id="rId29"/>
-    <hyperlink ref="A34" r:id="rId30"/>
-    <hyperlink ref="A35" r:id="rId31"/>
-    <hyperlink ref="A36" r:id="rId32"/>
-    <hyperlink ref="A37" r:id="rId33"/>
-    <hyperlink ref="A38" r:id="rId34"/>
-    <hyperlink ref="A41" r:id="rId35"/>
-    <hyperlink ref="A42" r:id="rId36"/>
-    <hyperlink ref="A43" r:id="rId37"/>
-    <hyperlink ref="A44" r:id="rId38"/>
-    <hyperlink ref="A45" r:id="rId39"/>
-    <hyperlink ref="A46" r:id="rId40"/>
-    <hyperlink ref="A47" r:id="rId41"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A41" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A42" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A43" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -888,7 +1052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
